--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R7c790773aee54b11"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R1601a77e325e4276"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46036.87024270833</x:v>
+        <x:v>46036.970641388885</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46036.87024270833</x:v>
+        <x:v>46036.970641388885</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R1601a77e325e4276"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Re7c0707ea69241ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46036.970641388885</x:v>
+        <x:v>46038.74828180556</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46036.970641388885</x:v>
+        <x:v>46038.74828180556</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Re7c0707ea69241ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rdab2dff271904f52"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46038.74828180556</x:v>
+        <x:v>46039.691805138886</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46038.74828180556</x:v>
+        <x:v>46039.691805138886</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rdab2dff271904f52"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R4cc6a4fe42ec4c00"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46039.691805138886</x:v>
+        <x:v>46039.738898090276</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46039.691805138886</x:v>
+        <x:v>46039.738898090276</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R4cc6a4fe42ec4c00"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R4319f44c4a704bfe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46039.738898090276</x:v>
+        <x:v>46039.75477821759</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46039.738898090276</x:v>
+        <x:v>46039.75477821759</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R4319f44c4a704bfe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rbfb1abde5fb04691"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46039.75477821759</x:v>
+        <x:v>46039.78580196759</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46039.75477821759</x:v>
+        <x:v>46039.78580196759</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rbfb1abde5fb04691"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R5a4589c6b6884ba8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46039.78580196759</x:v>
+        <x:v>46040.34884</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46039.78580196759</x:v>
+        <x:v>46040.34884</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R5a4589c6b6884ba8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Re5eebc6936ff42b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46040.34884</x:v>
+        <x:v>46040.94270907407</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46040.34884</x:v>
+        <x:v>46040.94270907407</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Re5eebc6936ff42b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R8a6250edefca43e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46040.94270907407</x:v>
+        <x:v>46040.98596686342</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46040.94270907407</x:v>
+        <x:v>46040.98596686342</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R8a6250edefca43e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R15759e0da4304bca"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46040.98596686342</x:v>
+        <x:v>46060.678136863426</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46040.98596686342</x:v>
+        <x:v>46060.678136863426</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R15759e0da4304bca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rb5b59cc0c46d459e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,12 +29,12 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46060.678136863426</x:v>
+        <x:v>46060.721093368054</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46060.678136863426</x:v>
+        <x:v>46060.721093368054</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rb5b59cc0c46d459e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rfbf9ecf99de64ecb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,12 +29,12 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46060.721093368054</x:v>
+        <x:v>46060.77104526621</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46060.721093368054</x:v>
+        <x:v>46060.77104526621</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/002_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rfbf9ecf99de64ecb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R4d33bd824ef64c89"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46060.77104526621</x:v>
+        <x:v>46062.18446420139</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46060.77104526621</x:v>
+        <x:v>46062.184464212965</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
